--- a/sample.xlsx
+++ b/sample.xlsx
@@ -17,9 +17,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>http://tech.ifeng.com/</t>
+    <t>http://running.sports.sohu.com/</t>
+  </si>
+  <si>
+    <t>http://drive.xcar.com.cn/</t>
+  </si>
+  <si>
+    <t>http://games.qq.com/a/20130529/017424.htm</t>
   </si>
 </sst>
 </file>
@@ -121,14 +127,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="D2" activeCellId="0" pane="topLeft" sqref="D2"/>
+      <selection activeCell="B3" activeCellId="0" pane="topLeft" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.6313725490196"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.6941176470588"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.65" outlineLevel="0" r="1">
@@ -142,7 +148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="2">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.65" outlineLevel="0" r="2">
       <c r="A2" s="0" t="n">
         <v>3</v>
       </c>
@@ -150,14 +156,21 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="3">
+      <c r="A3" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink display="http://tech.ifeng.com/" ref="C1" r:id="rId1"/>
-    <hyperlink display="http://tech.ifeng.com/" ref="C2" r:id="rId2"/>
-  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="true" usePrinterDefaults="false" verticalDpi="300"/>
@@ -180,7 +193,7 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.6313725490196"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.6941176470588"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -205,7 +218,7 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.6313725490196"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.6941176470588"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
